--- a/data/Inventaire Tags - Firminy - 2022.xlsx
+++ b/data/Inventaire Tags - Firminy - 2022.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pine/Resilio Sync/DEVELLYN/Code/Firminy/Z/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5E5B6C-FFD7-1E4E-AAD0-1E3ECADD2BCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="1220" yWindow="500" windowWidth="27580" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="119">
   <si>
     <t>Identifiant</t>
   </si>
@@ -326,34 +335,79 @@
   </si>
   <si>
     <t>tag_soignant3</t>
+  </si>
+  <si>
+    <t>brancard</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Soignant</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medecin</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Personnel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Materiel</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bladder</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>chariot</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamap</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>electro-cardiogramme</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fauteuil</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tag</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ordi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>scope</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -377,6 +431,25 @@
       <sz val="10"/>
       <color indexed="15"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -506,96 +579,155 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffd0d4d9"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff00b23b"/>
-      <rgbColor rgb="ff177ee5"/>
-      <rgbColor rgb="fff1c232"/>
-      <rgbColor rgb="ffed4747"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFD0D4D9"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF00B23B"/>
+      <rgbColor rgb="FF177EE5"/>
+      <rgbColor rgb="FFF1C232"/>
+      <rgbColor rgb="FFED4747"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -721,7 +853,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -730,7 +862,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -739,7 +871,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -813,7 +945,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -821,7 +953,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -840,7 +972,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -870,7 +1002,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -896,7 +1028,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -922,7 +1054,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -948,7 +1080,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -974,7 +1106,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1000,7 +1132,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1026,7 +1158,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1052,7 +1184,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1078,7 +1210,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1091,9 +1223,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1108,7 +1246,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1116,7 +1254,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1135,7 +1273,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1161,7 +1299,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1187,7 +1325,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1213,7 +1351,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1239,7 +1377,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1265,7 +1403,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1291,7 +1429,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1317,7 +1455,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1343,7 +1481,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1369,7 +1507,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1382,9 +1520,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1398,7 +1542,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1417,7 +1561,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1447,7 +1591,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1473,7 +1617,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1499,7 +1643,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1525,7 +1669,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1551,7 +1695,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1577,7 +1721,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1603,7 +1747,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1629,7 +1773,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1655,7 +1799,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1668,64 +1812,78 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="1" customWidth="1"/>
     <col min="3" max="7" width="14.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="14.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="1"/>
+    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="H1" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="5">
@@ -1734,21 +1892,24 @@
       <c r="F2" s="6">
         <v>44552</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="H2" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s" s="8">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="9">
@@ -1757,18 +1918,21 @@
       <c r="F3" s="10">
         <v>44552</v>
       </c>
-      <c r="G3" t="s" s="8">
+      <c r="G3" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="H3" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="11"/>
@@ -1778,18 +1942,21 @@
       <c r="F4" s="10">
         <v>44552</v>
       </c>
-      <c r="G4" t="s" s="8">
+      <c r="G4" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="7">
+      <c r="H4" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s" s="8">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="11"/>
@@ -1799,18 +1966,21 @@
       <c r="F5" s="10">
         <v>44552</v>
       </c>
-      <c r="G5" t="s" s="8">
+      <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" t="s" s="7">
+      <c r="H5" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s" s="8">
+      <c r="B6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s" s="8">
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="11"/>
@@ -1820,18 +1990,21 @@
       <c r="F6" s="10">
         <v>44552</v>
       </c>
-      <c r="G6" t="s" s="8">
+      <c r="G6" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="7">
+      <c r="H6" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s" s="8">
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s" s="8">
+      <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="11"/>
@@ -1841,18 +2014,21 @@
       <c r="F7" s="10">
         <v>44552</v>
       </c>
-      <c r="G7" t="s" s="8">
+      <c r="G7" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="7">
+      <c r="H7" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s" s="8">
+      <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="11"/>
@@ -1862,18 +2038,21 @@
       <c r="F8" s="10">
         <v>44552</v>
       </c>
-      <c r="G8" t="s" s="8">
+      <c r="G8" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="H8" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s" s="8">
+      <c r="B9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s" s="8">
+      <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="11"/>
@@ -1883,18 +2062,21 @@
       <c r="F9" s="10">
         <v>44552</v>
       </c>
-      <c r="G9" t="s" s="8">
+      <c r="G9" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="7">
+      <c r="H9" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B10" t="s" s="8">
+      <c r="B10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s" s="8">
+      <c r="C10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="11"/>
@@ -1904,18 +2086,21 @@
       <c r="F10" s="10">
         <v>44552</v>
       </c>
-      <c r="G10" t="s" s="8">
+      <c r="G10" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" ht="13.75" customHeight="1">
-      <c r="A11" t="s" s="7">
+      <c r="H10" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s" s="12">
+      <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="C11" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="11"/>
@@ -1925,18 +2110,21 @@
       <c r="F11" s="10">
         <v>44552</v>
       </c>
-      <c r="G11" t="s" s="12">
+      <c r="G11" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" ht="13.75" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="H11" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B12" t="s" s="12">
+      <c r="B12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s" s="12">
+      <c r="C12" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="11"/>
@@ -1946,18 +2134,21 @@
       <c r="F12" s="10">
         <v>44552</v>
       </c>
-      <c r="G12" t="s" s="12">
+      <c r="G12" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" ht="13.75" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="H12" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s" s="12">
+      <c r="B13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s" s="12">
+      <c r="C13" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="11"/>
@@ -1967,18 +2158,21 @@
       <c r="F13" s="10">
         <v>44552</v>
       </c>
-      <c r="G13" t="s" s="12">
+      <c r="G13" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" ht="13.75" customHeight="1">
-      <c r="A14" t="s" s="7">
+      <c r="H13" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s" s="12">
+      <c r="B14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s" s="12">
+      <c r="C14" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="11"/>
@@ -1988,18 +2182,21 @@
       <c r="F14" s="10">
         <v>44552</v>
       </c>
-      <c r="G14" t="s" s="12">
+      <c r="G14" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" ht="13.75" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="H14" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B15" t="s" s="12">
+      <c r="B15" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C15" t="s" s="12">
+      <c r="C15" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="11"/>
@@ -2009,18 +2206,21 @@
       <c r="F15" s="10">
         <v>44552</v>
       </c>
-      <c r="G15" t="s" s="12">
+      <c r="G15" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" ht="13.75" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="H15" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s" s="12">
+      <c r="B16" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s" s="12">
+      <c r="C16" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="11"/>
@@ -2030,18 +2230,21 @@
       <c r="F16" s="10">
         <v>44552</v>
       </c>
-      <c r="G16" t="s" s="12">
+      <c r="G16" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" ht="13.75" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="H16" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s" s="12">
+      <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s" s="12">
+      <c r="C17" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="11"/>
@@ -2051,18 +2254,21 @@
       <c r="F17" s="10">
         <v>44552</v>
       </c>
-      <c r="G17" t="s" s="12">
+      <c r="G17" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" ht="13.75" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="H17" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s" s="12">
+      <c r="B18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s" s="12">
+      <c r="C18" s="12" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="11"/>
@@ -2072,18 +2278,21 @@
       <c r="F18" s="10">
         <v>44552</v>
       </c>
-      <c r="G18" t="s" s="12">
+      <c r="G18" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" ht="13.75" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="H18" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B19" t="s" s="13">
+      <c r="B19" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C19" t="s" s="13">
+      <c r="C19" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="11"/>
@@ -2093,18 +2302,21 @@
       <c r="F19" s="10">
         <v>44552</v>
       </c>
-      <c r="G19" t="s" s="13">
+      <c r="G19" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" ht="13.75" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="H19" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s" s="13">
+      <c r="B20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s" s="13">
+      <c r="C20" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="11"/>
@@ -2114,18 +2326,21 @@
       <c r="F20" s="10">
         <v>44552</v>
       </c>
-      <c r="G20" t="s" s="13">
+      <c r="G20" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" ht="13.75" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="H20" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s" s="13">
+      <c r="B21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C21" t="s" s="13">
+      <c r="C21" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="11"/>
@@ -2135,18 +2350,21 @@
       <c r="F21" s="10">
         <v>44552</v>
       </c>
-      <c r="G21" t="s" s="13">
+      <c r="G21" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" ht="13.75" customHeight="1">
-      <c r="A22" t="s" s="7">
+      <c r="H21" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B22" t="s" s="13">
+      <c r="B22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C22" t="s" s="13">
+      <c r="C22" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="11"/>
@@ -2156,18 +2374,21 @@
       <c r="F22" s="10">
         <v>44552</v>
       </c>
-      <c r="G22" t="s" s="13">
+      <c r="G22" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" ht="13.75" customHeight="1">
-      <c r="A23" t="s" s="7">
+      <c r="H22" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B23" t="s" s="13">
+      <c r="B23" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C23" t="s" s="13">
+      <c r="C23" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="11"/>
@@ -2177,18 +2398,21 @@
       <c r="F23" s="10">
         <v>44552</v>
       </c>
-      <c r="G23" t="s" s="13">
+      <c r="G23" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="24" ht="13.75" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="H23" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="s" s="13">
+      <c r="B24" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s" s="13">
+      <c r="C24" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="11"/>
@@ -2198,18 +2422,21 @@
       <c r="F24" s="10">
         <v>44552</v>
       </c>
-      <c r="G24" t="s" s="13">
+      <c r="G24" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="25" ht="13.75" customHeight="1">
-      <c r="A25" t="s" s="7">
+      <c r="H24" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s" s="14">
+      <c r="B25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C25" t="s" s="14">
+      <c r="C25" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="11"/>
@@ -2219,18 +2446,21 @@
       <c r="F25" s="10">
         <v>44552</v>
       </c>
-      <c r="G25" t="s" s="14">
+      <c r="G25" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" ht="13.75" customHeight="1">
-      <c r="A26" t="s" s="7">
+      <c r="H25" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B26" t="s" s="14">
+      <c r="B26" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C26" t="s" s="14">
+      <c r="C26" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D26" s="11"/>
@@ -2240,18 +2470,21 @@
       <c r="F26" s="10">
         <v>44552</v>
       </c>
-      <c r="G26" t="s" s="14">
+      <c r="G26" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" ht="13.75" customHeight="1">
-      <c r="A27" t="s" s="7">
+      <c r="H26" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A27" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B27" t="s" s="14">
+      <c r="B27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C27" t="s" s="14">
+      <c r="C27" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D27" s="11"/>
@@ -2261,18 +2494,21 @@
       <c r="F27" s="10">
         <v>44552</v>
       </c>
-      <c r="G27" t="s" s="14">
+      <c r="G27" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" ht="13.75" customHeight="1">
-      <c r="A28" t="s" s="7">
+      <c r="H27" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A28" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B28" t="s" s="15">
+      <c r="B28" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C28" t="s" s="15">
+      <c r="C28" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D28" s="11"/>
@@ -2282,18 +2518,21 @@
       <c r="F28" s="10">
         <v>44552</v>
       </c>
-      <c r="G28" t="s" s="15">
+      <c r="G28" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" ht="13.75" customHeight="1">
-      <c r="A29" t="s" s="7">
+      <c r="H28" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B29" t="s" s="15">
+      <c r="B29" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C29" t="s" s="15">
+      <c r="C29" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="11"/>
@@ -2303,18 +2542,21 @@
       <c r="F29" s="10">
         <v>44552</v>
       </c>
-      <c r="G29" t="s" s="15">
+      <c r="G29" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" ht="13.75" customHeight="1">
-      <c r="A30" t="s" s="7">
+      <c r="H29" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B30" t="s" s="15">
+      <c r="B30" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C30" t="s" s="15">
+      <c r="C30" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D30" s="11"/>
@@ -2324,18 +2566,21 @@
       <c r="F30" s="10">
         <v>44552</v>
       </c>
-      <c r="G30" t="s" s="15">
+      <c r="G30" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" ht="13.75" customHeight="1">
-      <c r="A31" t="s" s="7">
+      <c r="H30" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B31" t="s" s="15">
+      <c r="B31" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C31" t="s" s="15">
+      <c r="C31" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="11"/>
@@ -2345,18 +2590,21 @@
       <c r="F31" s="10">
         <v>44552</v>
       </c>
-      <c r="G31" t="s" s="15">
+      <c r="G31" s="15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" ht="13.75" customHeight="1">
-      <c r="A32" t="s" s="7">
+      <c r="H31" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B32" t="s" s="15">
+      <c r="B32" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C32" t="s" s="15">
+      <c r="C32" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="11"/>
@@ -2366,325 +2614,449 @@
       <c r="F32" s="10">
         <v>44552</v>
       </c>
-      <c r="G32" t="s" s="15">
+      <c r="G32" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" ht="13.55" customHeight="1">
-      <c r="A33" t="s" s="7">
+      <c r="H32" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A33" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B33" t="s" s="8">
+      <c r="B33" s="8" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="16"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" ht="13.55" customHeight="1">
-      <c r="A34" t="s" s="7">
+      <c r="G33" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A34" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B34" t="s" s="8">
+      <c r="B34" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="16"/>
       <c r="F34" s="17"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" ht="13.55" customHeight="1">
-      <c r="A35" t="s" s="7">
+      <c r="G34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A35" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B35" t="s" s="8">
+      <c r="B35" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="16"/>
       <c r="F35" s="17"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" ht="13.55" customHeight="1">
-      <c r="A36" t="s" s="7">
+      <c r="G35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A36" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B36" t="s" s="8">
+      <c r="B36" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="16"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" ht="13.55" customHeight="1">
-      <c r="A37" t="s" s="7">
+      <c r="G36" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A37" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B37" t="s" s="8">
+      <c r="B37" s="8" t="s">
         <v>66</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="16"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="11"/>
-    </row>
-    <row r="38" ht="13.55" customHeight="1">
-      <c r="A38" t="s" s="7">
+      <c r="G37" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A38" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B38" t="s" s="8">
+      <c r="B38" s="8" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="16"/>
       <c r="F38" s="17"/>
-      <c r="G38" s="11"/>
-    </row>
-    <row r="39" ht="13.55" customHeight="1">
-      <c r="A39" t="s" s="7">
+      <c r="G38" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H38" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A39" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B39" t="s" s="8">
+      <c r="B39" s="8" t="s">
         <v>70</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" ht="13.55" customHeight="1">
-      <c r="A40" t="s" s="7">
+      <c r="G39" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A40" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B40" t="s" s="8">
+      <c r="B40" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="16"/>
       <c r="F40" s="17"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" ht="13.55" customHeight="1">
-      <c r="A41" t="s" s="7">
+      <c r="G40" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A41" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B41" t="s" s="8">
+      <c r="B41" s="8" t="s">
         <v>74</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="16"/>
       <c r="F41" s="17"/>
-      <c r="G41" s="11"/>
-    </row>
-    <row r="42" ht="13.55" customHeight="1">
-      <c r="A42" t="s" s="7">
+      <c r="G41" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A42" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B42" t="s" s="8">
+      <c r="B42" s="8" t="s">
         <v>76</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="16"/>
       <c r="F42" s="17"/>
-      <c r="G42" s="11"/>
-    </row>
-    <row r="43" ht="13.55" customHeight="1">
-      <c r="A43" t="s" s="7">
+      <c r="G42" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A43" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B43" t="s" s="8">
+      <c r="B43" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
-      <c r="G43" s="11"/>
-    </row>
-    <row r="44" ht="13.55" customHeight="1">
-      <c r="A44" t="s" s="7">
+      <c r="G43" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A44" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B44" t="s" s="8">
+      <c r="B44" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="16"/>
       <c r="F44" s="17"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" ht="13.55" customHeight="1">
-      <c r="A45" t="s" s="7">
+      <c r="G44" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A45" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B45" t="s" s="8">
+      <c r="B45" s="8" t="s">
         <v>82</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="16"/>
       <c r="F45" s="17"/>
-      <c r="G45" s="11"/>
-    </row>
-    <row r="46" ht="13.55" customHeight="1">
-      <c r="A46" t="s" s="7">
+      <c r="G45" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A46" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B46" t="s" s="8">
+      <c r="B46" s="8" t="s">
         <v>84</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="16"/>
       <c r="F46" s="17"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" ht="13.55" customHeight="1">
-      <c r="A47" t="s" s="7">
+      <c r="G46" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A47" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B47" t="s" s="8">
+      <c r="B47" s="8" t="s">
         <v>86</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="16"/>
       <c r="F47" s="17"/>
-      <c r="G47" s="11"/>
-    </row>
-    <row r="48" ht="13.55" customHeight="1">
-      <c r="A48" t="s" s="7">
+      <c r="G47" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A48" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B48" t="s" s="8">
+      <c r="B48" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="16"/>
       <c r="F48" s="17"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" ht="13.55" customHeight="1">
-      <c r="A49" t="s" s="7">
+      <c r="G48" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H48" s="18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A49" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B49" t="s" s="8">
+      <c r="B49" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="16"/>
       <c r="F49" s="17"/>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" ht="13.55" customHeight="1">
-      <c r="A50" t="s" s="7">
+      <c r="G49" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H49" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A50" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B50" t="s" s="8">
+      <c r="B50" s="8" t="s">
         <v>92</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="16"/>
       <c r="F50" s="17"/>
-      <c r="G50" s="11"/>
-    </row>
-    <row r="51" ht="13.55" customHeight="1">
-      <c r="A51" t="s" s="7">
+      <c r="G50" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H50" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A51" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B51" t="s" s="8">
+      <c r="B51" s="8" t="s">
         <v>94</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="16"/>
       <c r="F51" s="17"/>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" ht="13.55" customHeight="1">
-      <c r="A52" t="s" s="7">
+      <c r="G51" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A52" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B52" t="s" s="8">
+      <c r="B52" s="8" t="s">
         <v>96</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="16"/>
       <c r="F52" s="17"/>
-      <c r="G52" s="11"/>
-    </row>
-    <row r="53" ht="13.55" customHeight="1">
-      <c r="A53" t="s" s="7">
+      <c r="G52" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A53" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B53" t="s" s="8">
+      <c r="B53" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="16"/>
       <c r="F53" s="17"/>
-      <c r="G53" s="11"/>
-    </row>
-    <row r="54" ht="13.55" customHeight="1">
-      <c r="A54" t="s" s="7">
+      <c r="G53" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A54" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B54" t="s" s="8">
+      <c r="B54" s="8" t="s">
         <v>100</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="16"/>
       <c r="F54" s="17"/>
-      <c r="G54" s="11"/>
-    </row>
-    <row r="55" ht="13.55" customHeight="1">
-      <c r="A55" t="s" s="7">
+      <c r="G54" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A55" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B55" t="s" s="8">
+      <c r="B55" s="8" t="s">
         <v>102</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="16"/>
       <c r="F55" s="17"/>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" ht="13.55" customHeight="1">
-      <c r="A56" t="s" s="7">
+      <c r="G55" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A56" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B56" t="s" s="8">
+      <c r="B56" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="16"/>
       <c r="F56" s="17"/>
-      <c r="G56" s="11"/>
+      <c r="G56" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/Inventaire Tags - Firminy - 2022.xlsx
+++ b/data/Inventaire Tags - Firminy - 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pine/Resilio Sync/DEVELLYN/Code/Firminy/Z/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5E5B6C-FFD7-1E4E-AAD0-1E3ECADD2BCD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3EC69F-4924-9F4F-8968-5AC1F665B187}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="500" windowWidth="27580" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="500" windowWidth="27420" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
@@ -253,9 +253,6 @@
     <t>Dynamap1</t>
   </si>
   <si>
-    <t>2,8E+10</t>
-  </si>
-  <si>
     <t>Dynamap2</t>
   </si>
   <si>
@@ -293,9 +290,6 @@
   </si>
   <si>
     <t>Ordi mobile</t>
-  </si>
-  <si>
-    <t>2E+55</t>
   </si>
   <si>
     <t>Scope mobile</t>
@@ -390,6 +384,14 @@
   </si>
   <si>
     <t>scope</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>28e9</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2e55</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -639,6 +641,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1833,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -1870,7 +1875,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1">
@@ -1896,7 +1901,7 @@
         <v>10</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="13.5" customHeight="1">
@@ -1922,7 +1927,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.5" customHeight="1">
@@ -1946,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="13.5" customHeight="1">
@@ -1970,7 +1975,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.5" customHeight="1">
@@ -1994,7 +1999,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
@@ -2018,7 +2023,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="13.5" customHeight="1">
@@ -2042,7 +2047,7 @@
         <v>22</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="13.5" customHeight="1">
@@ -2066,7 +2071,7 @@
         <v>15</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="13.5" customHeight="1">
@@ -2090,7 +2095,7 @@
         <v>15</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="13.75" customHeight="1">
@@ -2114,7 +2119,7 @@
         <v>26</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="13.75" customHeight="1">
@@ -2138,7 +2143,7 @@
         <v>26</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="13.75" customHeight="1">
@@ -2162,7 +2167,7 @@
         <v>26</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="13.75" customHeight="1">
@@ -2186,7 +2191,7 @@
         <v>26</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="13.75" customHeight="1">
@@ -2210,7 +2215,7 @@
         <v>26</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="13.75" customHeight="1">
@@ -2234,7 +2239,7 @@
         <v>26</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="13.75" customHeight="1">
@@ -2258,7 +2263,7 @@
         <v>26</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="13.75" customHeight="1">
@@ -2282,7 +2287,7 @@
         <v>26</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="13.75" customHeight="1">
@@ -2306,7 +2311,7 @@
         <v>38</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="13.75" customHeight="1">
@@ -2330,7 +2335,7 @@
         <v>38</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="13.75" customHeight="1">
@@ -2354,7 +2359,7 @@
         <v>38</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="13.75" customHeight="1">
@@ -2378,7 +2383,7 @@
         <v>38</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="13.75" customHeight="1">
@@ -2402,7 +2407,7 @@
         <v>38</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="13.75" customHeight="1">
@@ -2426,7 +2431,7 @@
         <v>38</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="13.75" customHeight="1">
@@ -2450,7 +2455,7 @@
         <v>45</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="13.75" customHeight="1">
@@ -2474,7 +2479,7 @@
         <v>45</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="13.75" customHeight="1">
@@ -2498,7 +2503,7 @@
         <v>45</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="13.75" customHeight="1">
@@ -2522,7 +2527,7 @@
         <v>15</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="13.75" customHeight="1">
@@ -2546,7 +2551,7 @@
         <v>15</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="13.75" customHeight="1">
@@ -2570,7 +2575,7 @@
         <v>15</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="13.75" customHeight="1">
@@ -2594,7 +2599,7 @@
         <v>55</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="13.75" customHeight="1">
@@ -2618,7 +2623,7 @@
         <v>15</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="13.5" customHeight="1">
@@ -2633,10 +2638,10 @@
       <c r="E33" s="16"/>
       <c r="F33" s="17"/>
       <c r="G33" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="13.5" customHeight="1">
@@ -2654,7 +2659,7 @@
         <v>15</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="13.5" customHeight="1">
@@ -2672,7 +2677,7 @@
         <v>15</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="13.5" customHeight="1">
@@ -2690,7 +2695,7 @@
         <v>15</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1">
@@ -2708,7 +2713,7 @@
         <v>15</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="13.5" customHeight="1">
@@ -2723,10 +2728,10 @@
       <c r="E38" s="16"/>
       <c r="F38" s="17"/>
       <c r="G38" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.5" customHeight="1">
@@ -2744,7 +2749,7 @@
         <v>15</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="13.5" customHeight="1">
@@ -2759,10 +2764,10 @@
       <c r="E40" s="16"/>
       <c r="F40" s="17"/>
       <c r="G40" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="13.5" customHeight="1">
@@ -2777,10 +2782,10 @@
       <c r="E41" s="16"/>
       <c r="F41" s="17"/>
       <c r="G41" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="13.5" customHeight="1">
@@ -2795,262 +2800,262 @@
       <c r="E42" s="16"/>
       <c r="F42" s="17"/>
       <c r="G42" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
       <c r="G43" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="13.5" customHeight="1">
       <c r="A44" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="16"/>
       <c r="F44" s="17"/>
       <c r="G44" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="13.5" customHeight="1">
       <c r="A45" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>81</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>82</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="16"/>
       <c r="F45" s="17"/>
       <c r="G45" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="13.5" customHeight="1">
       <c r="A46" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="16"/>
       <c r="F46" s="17"/>
       <c r="G46" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="13.5" customHeight="1">
       <c r="A47" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="16"/>
       <c r="F47" s="17"/>
       <c r="G47" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="13.5" customHeight="1">
       <c r="A48" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="16"/>
       <c r="F48" s="17"/>
       <c r="G48" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="13.5" customHeight="1">
       <c r="A49" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="16"/>
       <c r="F49" s="17"/>
       <c r="G49" s="18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A50" s="7" t="s">
-        <v>91</v>
+      <c r="A50" s="21" t="s">
+        <v>118</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="16"/>
       <c r="F50" s="17"/>
       <c r="G50" s="18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="13.5" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="16"/>
       <c r="F51" s="17"/>
       <c r="G51" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H51" s="20" t="s">
         <v>107</v>
-      </c>
-      <c r="H51" s="20" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="13.5" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="16"/>
       <c r="F52" s="17"/>
       <c r="G52" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H52" s="20" t="s">
         <v>107</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="13.5" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="16"/>
       <c r="F53" s="17"/>
       <c r="G53" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" s="20" t="s">
         <v>107</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="13.5" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="16"/>
       <c r="F54" s="17"/>
       <c r="G54" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="13.5" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="16"/>
       <c r="F55" s="17"/>
       <c r="G55" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="13.5" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="16"/>
       <c r="F56" s="17"/>
       <c r="G56" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/data/Inventaire Tags - Firminy - 2022.xlsx
+++ b/data/Inventaire Tags - Firminy - 2022.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pine/Resilio Sync/DEVELLYN/Code/Firminy/Z/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3EC69F-4924-9F4F-8968-5AC1F665B187}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="1380" yWindow="500" windowWidth="27420" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuille1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
   <si>
     <t>Identifiant</t>
   </si>
@@ -43,6 +34,9 @@
     <t>affectation</t>
   </si>
   <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>4586</t>
   </si>
   <si>
@@ -55,6 +49,9 @@
     <t>Francois</t>
   </si>
   <si>
+    <t>Personnel</t>
+  </si>
+  <si>
     <t>3721</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
     <t>brancard</t>
   </si>
   <si>
+    <t>Materiel</t>
+  </si>
+  <si>
     <t>67cf</t>
   </si>
   <si>
@@ -172,9 +172,6 @@
     <t>44e0</t>
   </si>
   <si>
-    <t>Materiel</t>
-  </si>
-  <si>
     <t>rouge</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
     <t>Bladder</t>
   </si>
   <si>
+    <t>bladder</t>
+  </si>
+  <si>
     <t>0da6</t>
   </si>
   <si>
@@ -241,6 +241,9 @@
     <t>Chariot de soins1</t>
   </si>
   <si>
+    <t>chariot</t>
+  </si>
+  <si>
     <t>29ed</t>
   </si>
   <si>
@@ -253,6 +256,12 @@
     <t>Dynamap1</t>
   </si>
   <si>
+    <t>dynamap</t>
+  </si>
+  <si>
+    <t>28e9</t>
+  </si>
+  <si>
     <t>Dynamap2</t>
   </si>
   <si>
@@ -268,12 +277,18 @@
     <t>Electro-cardiogramme</t>
   </si>
   <si>
+    <t>electro-cardiogramme</t>
+  </si>
+  <si>
     <t>0db4</t>
   </si>
   <si>
     <t>Fauteuil roulant1</t>
   </si>
   <si>
+    <t>fauteuil</t>
+  </si>
+  <si>
     <t>2dd9</t>
   </si>
   <si>
@@ -286,15 +301,27 @@
     <t>Tag fixe</t>
   </si>
   <si>
+    <t>Tag</t>
+  </si>
+  <si>
     <t>28d2</t>
   </si>
   <si>
     <t>Ordi mobile</t>
   </si>
   <si>
+    <t>ordi</t>
+  </si>
+  <si>
+    <t>2e55</t>
+  </si>
+  <si>
     <t>Scope mobile</t>
   </si>
   <si>
+    <t>scope</t>
+  </si>
+  <si>
     <t>cf31</t>
   </si>
   <si>
@@ -331,85 +358,71 @@
     <t>tag_soignant3</t>
   </si>
   <si>
-    <t>brancard</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Soignant</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Medecin</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Personnel</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Materiel</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>bladder</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>chariot</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>dynamap</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>electro-cardiogramme</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>fauteuil</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tag</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ordi</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>scope</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>28e9</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>2e55</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>0a98</t>
+  </si>
+  <si>
+    <t>4270</t>
+  </si>
+  <si>
+    <t>IDE</t>
+  </si>
+  <si>
+    <t>44d8</t>
+  </si>
+  <si>
+    <t>424d</t>
+  </si>
+  <si>
+    <t>15c0</t>
+  </si>
+  <si>
+    <t>4219</t>
+  </si>
+  <si>
+    <t>503a</t>
+  </si>
+  <si>
+    <t>422e</t>
+  </si>
+  <si>
+    <t>460e</t>
+  </si>
+  <si>
+    <t>44db</t>
+  </si>
+  <si>
+    <t>5afc</t>
+  </si>
+  <si>
+    <t>Testeur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -433,25 +446,6 @@
       <sz val="10"/>
       <color indexed="15"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -581,158 +575,96 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFD0D4D9"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FF00B23B"/>
-      <rgbColor rgb="FF177EE5"/>
-      <rgbColor rgb="FFF1C232"/>
-      <rgbColor rgb="FFED4747"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffd0d4d9"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff00b23b"/>
+      <rgbColor rgb="ff177ee5"/>
+      <rgbColor rgb="fff1c232"/>
+      <rgbColor rgb="ffed4747"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -858,7 +790,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -867,7 +799,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -876,7 +808,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -950,7 +882,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -958,7 +890,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -977,7 +909,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1007,7 +939,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1033,7 +965,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1059,7 +991,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1085,7 +1017,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1111,7 +1043,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,7 +1069,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1163,7 +1095,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1189,7 +1121,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1215,7 +1147,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1228,15 +1160,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1251,7 +1177,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1259,7 +1185,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1278,7 +1204,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1304,7 +1230,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1330,7 +1256,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1356,7 +1282,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1382,7 +1308,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1408,7 +1334,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1434,7 +1360,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1460,7 +1386,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1486,7 +1412,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1512,7 +1438,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1525,15 +1451,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1547,7 +1467,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1566,7 +1486,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1596,7 +1516,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1622,7 +1542,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1648,7 +1568,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1674,7 +1594,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1700,7 +1620,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1726,7 +1646,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1752,7 +1672,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1778,7 +1698,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1804,7 +1724,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1817,79 +1737,68 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H56"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" style="1" customWidth="1"/>
-    <col min="3" max="7" width="14.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1"/>
-    <col min="9" max="9" width="14.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="14.5" style="1"/>
+    <col min="2" max="2" width="24.8516" style="1" customWidth="1"/>
+    <col min="3" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="13.75" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="H1" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="2" ht="13.5" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" t="s" s="4">
         <v>10</v>
+      </c>
+      <c r="D2" t="s" s="4">
+        <v>11</v>
       </c>
       <c r="E2" s="5">
         <v>44544</v>
@@ -1897,25 +1806,25 @@
       <c r="F2" s="6">
         <v>44552</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="13.5" customHeight="1">
+      <c r="A3" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>12</v>
+      <c r="D3" t="s" s="8">
+        <v>14</v>
       </c>
       <c r="E3" s="9">
         <v>44544</v>
@@ -1923,22 +1832,22 @@
       <c r="F3" s="10">
         <v>44552</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="G3" t="s" s="8">
         <v>14</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>9</v>
+      <c r="H3" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="13.5" customHeight="1">
+      <c r="A4" t="s" s="7">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="9">
@@ -1947,22 +1856,22 @@
       <c r="F4" s="10">
         <v>44552</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="G4" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="13.5" customHeight="1">
+      <c r="A5" t="s" s="7">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s" s="8">
         <v>16</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>9</v>
+      <c r="C5" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="9">
@@ -1971,22 +1880,22 @@
       <c r="F5" s="10">
         <v>44552</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="G5" t="s" s="8">
         <v>17</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>9</v>
+      <c r="H5" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="13.5" customHeight="1">
+      <c r="A6" t="s" s="7">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="9">
@@ -1995,22 +1904,22 @@
       <c r="F6" s="10">
         <v>44552</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>9</v>
+      <c r="G6" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" ht="13.5" customHeight="1">
+      <c r="A7" t="s" s="7">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="9">
@@ -2019,22 +1928,22 @@
       <c r="F7" s="10">
         <v>44552</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>9</v>
+      <c r="G7" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="13.5" customHeight="1">
+      <c r="A8" t="s" s="7">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="9">
@@ -2043,22 +1952,22 @@
       <c r="F8" s="10">
         <v>44552</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>9</v>
+      <c r="G8" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" ht="13.5" customHeight="1">
+      <c r="A9" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="9">
@@ -2067,22 +1976,22 @@
       <c r="F9" s="10">
         <v>44552</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A10" s="7" t="s">
+      <c r="G9" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="13.5" customHeight="1">
+      <c r="A10" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s" s="8">
         <v>24</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>9</v>
+      <c r="C10" t="s" s="8">
+        <v>10</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="9">
@@ -2091,22 +2000,22 @@
       <c r="F10" s="10">
         <v>44552</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>27</v>
+      <c r="G10" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="13.75" customHeight="1">
+      <c r="A11" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="9">
@@ -2115,22 +2024,22 @@
       <c r="F11" s="10">
         <v>44552</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>27</v>
+      <c r="G11" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="13.75" customHeight="1">
+      <c r="A12" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="9">
@@ -2139,22 +2048,22 @@
       <c r="F12" s="10">
         <v>44552</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A13" s="7" t="s">
+      <c r="G12" t="s" s="12">
         <v>29</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>27</v>
+      <c r="H12" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" ht="13.75" customHeight="1">
+      <c r="A13" t="s" s="7">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="9">
@@ -2163,22 +2072,22 @@
       <c r="F13" s="10">
         <v>44552</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A14" s="7" t="s">
+      <c r="G13" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="H13" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="13.75" customHeight="1">
+      <c r="A14" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s" s="12">
         <v>30</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="9">
@@ -2187,22 +2096,22 @@
       <c r="F14" s="10">
         <v>44552</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>27</v>
+      <c r="G14" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" ht="13.75" customHeight="1">
+      <c r="A15" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="9">
@@ -2211,22 +2120,22 @@
       <c r="F15" s="10">
         <v>44552</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>27</v>
+      <c r="G15" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="H15" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" ht="13.75" customHeight="1">
+      <c r="A16" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="9">
@@ -2235,22 +2144,22 @@
       <c r="F16" s="10">
         <v>44552</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>27</v>
+      <c r="G16" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" ht="13.75" customHeight="1">
+      <c r="A17" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="9">
@@ -2259,22 +2168,22 @@
       <c r="F17" s="10">
         <v>44552</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>27</v>
+      <c r="G17" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" ht="13.75" customHeight="1">
+      <c r="A18" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s" s="12">
+        <v>30</v>
       </c>
       <c r="D18" s="11"/>
       <c r="E18" s="9">
@@ -2283,22 +2192,22 @@
       <c r="F18" s="10">
         <v>44552</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>37</v>
+      <c r="G18" t="s" s="12">
+        <v>29</v>
+      </c>
+      <c r="H18" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" ht="13.75" customHeight="1">
+      <c r="A19" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s" s="13">
+        <v>40</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="9">
@@ -2307,22 +2216,22 @@
       <c r="F19" s="10">
         <v>44552</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A20" s="7" t="s">
+      <c r="G19" t="s" s="13">
+        <v>41</v>
+      </c>
+      <c r="H19" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" ht="13.75" customHeight="1">
+      <c r="A20" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s" s="13">
         <v>39</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>37</v>
+      <c r="C20" t="s" s="13">
+        <v>40</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="9">
@@ -2331,22 +2240,22 @@
       <c r="F20" s="10">
         <v>44552</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="G20" t="s" s="13">
+        <v>41</v>
+      </c>
+      <c r="H20" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" ht="13.75" customHeight="1">
+      <c r="A21" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s" s="13">
         <v>40</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="9">
@@ -2355,22 +2264,22 @@
       <c r="F21" s="10">
         <v>44552</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A22" s="7" t="s">
+      <c r="G21" t="s" s="13">
         <v>41</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>37</v>
+      <c r="H21" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" ht="13.75" customHeight="1">
+      <c r="A22" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s" s="13">
+        <v>40</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="9">
@@ -2379,22 +2288,22 @@
       <c r="F22" s="10">
         <v>44552</v>
       </c>
-      <c r="G22" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>37</v>
+      <c r="G22" t="s" s="13">
+        <v>41</v>
+      </c>
+      <c r="H22" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" ht="13.75" customHeight="1">
+      <c r="A23" t="s" s="7">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s" s="13">
+        <v>40</v>
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="9">
@@ -2403,22 +2312,22 @@
       <c r="F23" s="10">
         <v>44552</v>
       </c>
-      <c r="G23" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>37</v>
+      <c r="G23" t="s" s="13">
+        <v>41</v>
+      </c>
+      <c r="H23" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" ht="13.75" customHeight="1">
+      <c r="A24" t="s" s="7">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s" s="13">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s" s="13">
+        <v>40</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="9">
@@ -2427,22 +2336,22 @@
       <c r="F24" s="10">
         <v>44552</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>46</v>
+      <c r="G24" t="s" s="13">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" ht="13.75" customHeight="1">
+      <c r="A25" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s" s="14">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s" s="14">
+        <v>49</v>
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="9">
@@ -2451,22 +2360,22 @@
       <c r="F25" s="10">
         <v>44552</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>46</v>
+      <c r="G25" t="s" s="14">
+        <v>48</v>
+      </c>
+      <c r="H25" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" ht="13.75" customHeight="1">
+      <c r="A26" t="s" s="7">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s" s="14">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s" s="14">
+        <v>49</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="9">
@@ -2475,22 +2384,22 @@
       <c r="F26" s="10">
         <v>44552</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A27" s="7" t="s">
+      <c r="G26" t="s" s="14">
         <v>48</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>46</v>
+      <c r="H26" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" ht="13.75" customHeight="1">
+      <c r="A27" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s" s="14">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s" s="14">
+        <v>49</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="9">
@@ -2499,22 +2408,22 @@
       <c r="F27" s="10">
         <v>44552</v>
       </c>
-      <c r="G27" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>51</v>
+      <c r="G27" t="s" s="14">
+        <v>48</v>
+      </c>
+      <c r="H27" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" ht="13.75" customHeight="1">
+      <c r="A28" t="s" s="7">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="C28" t="s" s="15">
+        <v>53</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="9">
@@ -2523,22 +2432,22 @@
       <c r="F28" s="10">
         <v>44552</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>51</v>
+      <c r="G28" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" ht="13.75" customHeight="1">
+      <c r="A29" t="s" s="7">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="C29" t="s" s="15">
+        <v>53</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="9">
@@ -2547,22 +2456,22 @@
       <c r="F29" s="10">
         <v>44552</v>
       </c>
-      <c r="G29" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A30" s="7" t="s">
+      <c r="G29" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" ht="13.75" customHeight="1">
+      <c r="A30" t="s" s="7">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s" s="15">
         <v>53</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>51</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="9">
@@ -2571,22 +2480,22 @@
       <c r="F30" s="10">
         <v>44552</v>
       </c>
-      <c r="G30" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>51</v>
+      <c r="G30" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" ht="13.75" customHeight="1">
+      <c r="A31" t="s" s="7">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s" s="15">
+        <v>53</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="9">
@@ -2595,22 +2504,22 @@
       <c r="F31" s="10">
         <v>44552</v>
       </c>
-      <c r="G31" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="13.75" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>51</v>
+      <c r="G31" t="s" s="15">
+        <v>57</v>
+      </c>
+      <c r="H31" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" ht="13.75" customHeight="1">
+      <c r="A32" t="s" s="7">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s" s="15">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s" s="15">
+        <v>53</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="9">
@@ -2619,449 +2528,646 @@
       <c r="F32" s="10">
         <v>44552</v>
       </c>
-      <c r="G32" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>58</v>
+      <c r="G32" t="s" s="15">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" ht="13.5" customHeight="1">
+      <c r="A33" t="s" s="7">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s" s="8">
+        <v>60</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="16"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>60</v>
+      <c r="G33" t="s" s="8">
+        <v>61</v>
+      </c>
+      <c r="H33" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" ht="13.5" customHeight="1">
+      <c r="A34" t="s" s="7">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s" s="8">
+        <v>63</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="16"/>
       <c r="F34" s="17"/>
-      <c r="G34" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A35" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>62</v>
+      <c r="G34" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="H34" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" ht="13.5" customHeight="1">
+      <c r="A35" t="s" s="7">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s" s="8">
+        <v>65</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="16"/>
       <c r="F35" s="17"/>
-      <c r="G35" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>64</v>
+      <c r="G35" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" ht="13.5" customHeight="1">
+      <c r="A36" t="s" s="7">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s" s="8">
+        <v>67</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="16"/>
       <c r="F36" s="17"/>
-      <c r="G36" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>66</v>
+      <c r="G36" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="H36" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" ht="13.5" customHeight="1">
+      <c r="A37" t="s" s="7">
+        <v>68</v>
+      </c>
+      <c r="B37" t="s" s="8">
+        <v>69</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="16"/>
       <c r="F37" s="17"/>
-      <c r="G37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A38" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>68</v>
+      <c r="G37" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" ht="13.5" customHeight="1">
+      <c r="A38" t="s" s="7">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s" s="8">
+        <v>71</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="16"/>
       <c r="F38" s="17"/>
-      <c r="G38" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="H38" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A39" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>70</v>
+      <c r="G38" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" ht="13.5" customHeight="1">
+      <c r="A39" t="s" s="7">
+        <v>72</v>
+      </c>
+      <c r="B39" t="s" s="8">
+        <v>73</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
-      <c r="G39" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A40" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>72</v>
+      <c r="G39" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" ht="13.5" customHeight="1">
+      <c r="A40" t="s" s="7">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s" s="8">
+        <v>75</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="16"/>
       <c r="F40" s="17"/>
-      <c r="G40" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H40" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A41" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>74</v>
+      <c r="G40" t="s" s="8">
+        <v>76</v>
+      </c>
+      <c r="H40" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" ht="13.5" customHeight="1">
+      <c r="A41" t="s" s="7">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s" s="8">
+        <v>78</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="16"/>
       <c r="F41" s="17"/>
-      <c r="G41" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A42" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="8" t="s">
+      <c r="G41" t="s" s="8">
         <v>76</v>
+      </c>
+      <c r="H41" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" ht="13.5" customHeight="1">
+      <c r="A42" t="s" s="7">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s" s="8">
+        <v>80</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="16"/>
       <c r="F42" s="17"/>
-      <c r="G42" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A43" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>77</v>
+      <c r="G42" t="s" s="8">
+        <v>81</v>
+      </c>
+      <c r="H42" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" ht="13.5" customHeight="1">
+      <c r="A43" t="s" s="7">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s" s="8">
+        <v>83</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
-      <c r="G43" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A44" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>79</v>
+      <c r="G43" t="s" s="8">
+        <v>81</v>
+      </c>
+      <c r="H43" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" ht="13.5" customHeight="1">
+      <c r="A44" t="s" s="7">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s" s="8">
+        <v>85</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="16"/>
       <c r="F44" s="17"/>
-      <c r="G44" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H44" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A45" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="8" t="s">
+      <c r="G44" t="s" s="8">
         <v>81</v>
+      </c>
+      <c r="H44" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" ht="13.5" customHeight="1">
+      <c r="A45" t="s" s="7">
+        <v>86</v>
+      </c>
+      <c r="B45" t="s" s="8">
+        <v>87</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="16"/>
       <c r="F45" s="17"/>
-      <c r="G45" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H45" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A46" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>83</v>
+      <c r="G45" t="s" s="8">
+        <v>88</v>
+      </c>
+      <c r="H45" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" ht="13.5" customHeight="1">
+      <c r="A46" t="s" s="7">
+        <v>89</v>
+      </c>
+      <c r="B46" t="s" s="8">
+        <v>90</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="16"/>
       <c r="F46" s="17"/>
-      <c r="G46" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A47" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>85</v>
+      <c r="G46" t="s" s="8">
+        <v>91</v>
+      </c>
+      <c r="H46" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" ht="13.5" customHeight="1">
+      <c r="A47" t="s" s="7">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s" s="8">
+        <v>93</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="16"/>
       <c r="F47" s="17"/>
-      <c r="G47" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="H47" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A48" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>87</v>
+      <c r="G47" t="s" s="8">
+        <v>91</v>
+      </c>
+      <c r="H47" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" ht="13.5" customHeight="1">
+      <c r="A48" t="s" s="7">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s" s="8">
+        <v>95</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="16"/>
       <c r="F48" s="17"/>
-      <c r="G48" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H48" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A49" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>89</v>
+      <c r="G48" t="s" s="8">
+        <v>95</v>
+      </c>
+      <c r="H48" t="s" s="8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" ht="13.5" customHeight="1">
+      <c r="A49" t="s" s="7">
+        <v>97</v>
+      </c>
+      <c r="B49" t="s" s="8">
+        <v>98</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="16"/>
       <c r="F49" s="17"/>
-      <c r="G49" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A50" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>90</v>
+      <c r="G49" t="s" s="8">
+        <v>99</v>
+      </c>
+      <c r="H49" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" ht="13.5" customHeight="1">
+      <c r="A50" t="s" s="7">
+        <v>100</v>
+      </c>
+      <c r="B50" t="s" s="8">
+        <v>101</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="16"/>
       <c r="F50" s="17"/>
-      <c r="G50" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A51" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>92</v>
+      <c r="G50" t="s" s="8">
+        <v>102</v>
+      </c>
+      <c r="H50" t="s" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" ht="13.5" customHeight="1">
+      <c r="A51" t="s" s="7">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s" s="8">
+        <v>104</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="16"/>
       <c r="F51" s="17"/>
-      <c r="G51" s="18" t="s">
+      <c r="G51" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="H51" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" ht="13.5" customHeight="1">
+      <c r="A52" t="s" s="7">
         <v>105</v>
       </c>
-      <c r="H51" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A52" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>94</v>
+      <c r="B52" t="s" s="8">
+        <v>106</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="16"/>
       <c r="F52" s="17"/>
-      <c r="G52" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="H52" s="20" t="s">
+      <c r="G52" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="H52" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" ht="13.5" customHeight="1">
+      <c r="A53" t="s" s="7">
         <v>107</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A53" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>96</v>
+      <c r="B53" t="s" s="8">
+        <v>108</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="16"/>
       <c r="F53" s="17"/>
-      <c r="G53" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A54" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>98</v>
+      <c r="G53" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="H53" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" ht="13.5" customHeight="1">
+      <c r="A54" t="s" s="7">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s" s="8">
+        <v>110</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="16"/>
       <c r="F54" s="17"/>
-      <c r="G54" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A55" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>100</v>
+      <c r="G54" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="H54" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" ht="13.5" customHeight="1">
+      <c r="A55" t="s" s="7">
+        <v>111</v>
+      </c>
+      <c r="B55" t="s" s="8">
+        <v>112</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="16"/>
       <c r="F55" s="17"/>
-      <c r="G55" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A56" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>102</v>
+      <c r="G55" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="H55" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" ht="13.5" customHeight="1">
+      <c r="A56" t="s" s="7">
+        <v>113</v>
+      </c>
+      <c r="B56" t="s" s="8">
+        <v>114</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="16"/>
       <c r="F56" s="17"/>
-      <c r="G56" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H56" s="20" t="s">
-        <v>107</v>
+      <c r="G56" t="s" s="8">
+        <v>41</v>
+      </c>
+      <c r="H56" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" ht="13.5" customHeight="1">
+      <c r="A57" t="s" s="7">
+        <v>115</v>
+      </c>
+      <c r="B57" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="17"/>
+      <c r="G57" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="H57" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" ht="13.5" customHeight="1">
+      <c r="A58" t="s" s="7">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s" s="8">
+        <v>117</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
+      <c r="G58" t="s" s="8">
+        <v>117</v>
+      </c>
+      <c r="H58" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" ht="13.5" customHeight="1">
+      <c r="A59" t="s" s="7">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s" s="8">
+        <v>117</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="17"/>
+      <c r="G59" t="s" s="8">
+        <v>117</v>
+      </c>
+      <c r="H59" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" ht="13.5" customHeight="1">
+      <c r="A60" t="s" s="7">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s" s="8">
+        <v>117</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="17"/>
+      <c r="G60" t="s" s="8">
+        <v>117</v>
+      </c>
+      <c r="H60" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" ht="13.5" customHeight="1">
+      <c r="A61" t="s" s="7">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s" s="8">
+        <v>117</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="17"/>
+      <c r="G61" t="s" s="8">
+        <v>117</v>
+      </c>
+      <c r="H61" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" ht="13.5" customHeight="1">
+      <c r="A62" t="s" s="7">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s" s="8">
+        <v>117</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="17"/>
+      <c r="G62" t="s" s="8">
+        <v>117</v>
+      </c>
+      <c r="H62" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" ht="13.5" customHeight="1">
+      <c r="A63" t="s" s="7">
+        <v>122</v>
+      </c>
+      <c r="B63" t="s" s="8">
+        <v>48</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="17"/>
+      <c r="G63" t="s" s="8">
+        <v>48</v>
+      </c>
+      <c r="H63" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" ht="13.5" customHeight="1">
+      <c r="A64" t="s" s="7">
+        <v>123</v>
+      </c>
+      <c r="B64" t="s" s="8">
+        <v>48</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="17"/>
+      <c r="G64" t="s" s="8">
+        <v>48</v>
+      </c>
+      <c r="H64" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" ht="13.5" customHeight="1">
+      <c r="A65" t="s" s="7">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s" s="8">
+        <v>48</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="17"/>
+      <c r="G65" t="s" s="8">
+        <v>48</v>
+      </c>
+      <c r="H65" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" ht="13.5" customHeight="1">
+      <c r="A66" t="s" s="7">
+        <v>125</v>
+      </c>
+      <c r="B66" t="s" s="8">
+        <v>48</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="17"/>
+      <c r="G66" t="s" s="8">
+        <v>48</v>
+      </c>
+      <c r="H66" t="s" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" ht="13.5" customHeight="1">
+      <c r="A67" t="s" s="7">
+        <v>126</v>
+      </c>
+      <c r="B67" t="s" s="8">
+        <v>127</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="17"/>
+      <c r="G67" t="s" s="8">
+        <v>127</v>
+      </c>
+      <c r="H67" t="s" s="8">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/Inventaire Tags - Firminy - 2022.xlsx
+++ b/data/Inventaire Tags - Firminy - 2022.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pine/Resilio Sync/DEVELLYN/Code/Firminy/Z/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F36DB43-97ED-9348-B142-0E2721812480}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="1220" yWindow="500" windowWidth="27560" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuille1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuille1!$A$1:$H$68</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="130">
   <si>
     <t>Identifiant</t>
   </si>
@@ -395,15 +407,22 @@
   </si>
   <si>
     <t>Testeur</t>
+  </si>
+  <si>
+    <t>295e</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Testeur</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="dd/mm/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -412,17 +431,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -446,6 +455,18 @@
       <sz val="10"/>
       <color indexed="15"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -575,96 +596,152 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffd0d4d9"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff00b23b"/>
-      <rgbColor rgb="ff177ee5"/>
-      <rgbColor rgb="fff1c232"/>
-      <rgbColor rgb="ffed4747"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFD0D4D9"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF00B23B"/>
+      <rgbColor rgb="FF177EE5"/>
+      <rgbColor rgb="FFF1C232"/>
+      <rgbColor rgb="FFED4747"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -790,7 +867,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -799,7 +876,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -808,7 +885,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -882,7 +959,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -890,7 +967,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -909,7 +986,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -939,7 +1016,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -965,7 +1042,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -991,7 +1068,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,7 +1094,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1043,7 +1120,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1069,7 +1146,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1095,7 +1172,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1121,7 +1198,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1147,7 +1224,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,9 +1237,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1177,7 +1260,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -1185,7 +1268,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1204,7 +1287,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1230,7 +1313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,7 +1339,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1282,7 +1365,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,7 +1391,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +1417,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1360,7 +1443,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1386,7 +1469,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1412,7 +1495,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1438,7 +1521,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1451,9 +1534,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1467,7 +1556,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1486,7 +1575,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1516,7 +1605,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1542,7 +1631,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1568,7 +1657,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1594,7 +1683,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1620,7 +1709,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1646,7 +1735,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1672,7 +1761,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1698,7 +1787,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1724,7 +1813,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1737,67 +1826,76 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67:H67"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.8516" style="1" customWidth="1"/>
-    <col min="3" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="14.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="1" customWidth="1"/>
+    <col min="3" max="9" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="5">
@@ -1806,24 +1904,24 @@
       <c r="F2" s="6">
         <v>44552</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="G2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="H2" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s" s="8">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="8">
+      <c r="C3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s" s="8">
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="9">
@@ -1832,21 +1930,21 @@
       <c r="F3" s="10">
         <v>44552</v>
       </c>
-      <c r="G3" t="s" s="8">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H3" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" t="s" s="7">
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="11"/>
@@ -1856,21 +1954,21 @@
       <c r="F4" s="10">
         <v>44552</v>
       </c>
-      <c r="G4" t="s" s="8">
+      <c r="G4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H4" t="s" s="8">
+      <c r="H4" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" t="s" s="7">
+    <row r="5" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s" s="8">
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s" s="8">
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="11"/>
@@ -1880,21 +1978,21 @@
       <c r="F5" s="10">
         <v>44552</v>
       </c>
-      <c r="G5" t="s" s="8">
+      <c r="G5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s" s="8">
+      <c r="H5" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" t="s" s="7">
+    <row r="6" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s" s="8">
+      <c r="B6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s" s="8">
+      <c r="C6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="11"/>
@@ -1904,21 +2002,21 @@
       <c r="F6" s="10">
         <v>44552</v>
       </c>
-      <c r="G6" t="s" s="8">
+      <c r="G6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s" s="8">
+      <c r="H6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" t="s" s="7">
+    <row r="7" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s" s="8">
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s" s="8">
+      <c r="C7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="11"/>
@@ -1928,21 +2026,21 @@
       <c r="F7" s="10">
         <v>44552</v>
       </c>
-      <c r="G7" t="s" s="8">
+      <c r="G7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H7" t="s" s="8">
+      <c r="H7" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" t="s" s="7">
+    <row r="8" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s" s="8">
+      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="11"/>
@@ -1952,21 +2050,21 @@
       <c r="F8" s="10">
         <v>44552</v>
       </c>
-      <c r="G8" t="s" s="8">
+      <c r="G8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H8" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" t="s" s="7">
+      <c r="H8" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s" s="8">
+      <c r="B9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s" s="8">
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="11"/>
@@ -1976,21 +2074,21 @@
       <c r="F9" s="10">
         <v>44552</v>
       </c>
-      <c r="G9" t="s" s="8">
+      <c r="G9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H9" t="s" s="8">
+      <c r="H9" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" t="s" s="7">
+    <row r="10" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s" s="8">
+      <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s" s="8">
+      <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="11"/>
@@ -2000,21 +2098,21 @@
       <c r="F10" s="10">
         <v>44552</v>
       </c>
-      <c r="G10" t="s" s="8">
+      <c r="G10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H10" t="s" s="8">
+      <c r="H10" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="13.75" customHeight="1">
-      <c r="A11" t="s" s="7">
+    <row r="11" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s" s="12">
+      <c r="B11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C11" t="s" s="12">
+      <c r="C11" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="11"/>
@@ -2024,21 +2122,21 @@
       <c r="F11" s="10">
         <v>44552</v>
       </c>
-      <c r="G11" t="s" s="12">
+      <c r="G11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H11" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" ht="13.75" customHeight="1">
-      <c r="A12" t="s" s="7">
+      <c r="H11" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B12" t="s" s="12">
+      <c r="B12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C12" t="s" s="12">
+      <c r="C12" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="11"/>
@@ -2048,21 +2146,21 @@
       <c r="F12" s="10">
         <v>44552</v>
       </c>
-      <c r="G12" t="s" s="12">
+      <c r="G12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H12" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" ht="13.75" customHeight="1">
-      <c r="A13" t="s" s="7">
+      <c r="H12" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A13" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s" s="12">
+      <c r="B13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C13" t="s" s="12">
+      <c r="C13" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="11"/>
@@ -2072,21 +2170,21 @@
       <c r="F13" s="10">
         <v>44552</v>
       </c>
-      <c r="G13" t="s" s="12">
+      <c r="G13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H13" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" ht="13.75" customHeight="1">
-      <c r="A14" t="s" s="7">
+      <c r="H13" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s" s="12">
+      <c r="B14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C14" t="s" s="12">
+      <c r="C14" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="11"/>
@@ -2096,21 +2194,21 @@
       <c r="F14" s="10">
         <v>44552</v>
       </c>
-      <c r="G14" t="s" s="12">
+      <c r="G14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H14" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" ht="13.75" customHeight="1">
-      <c r="A15" t="s" s="7">
+      <c r="H14" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s" s="12">
+      <c r="B15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s" s="12">
+      <c r="C15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="11"/>
@@ -2120,21 +2218,21 @@
       <c r="F15" s="10">
         <v>44552</v>
       </c>
-      <c r="G15" t="s" s="12">
+      <c r="G15" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H15" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" ht="13.75" customHeight="1">
-      <c r="A16" t="s" s="7">
+      <c r="H15" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B16" t="s" s="12">
+      <c r="B16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C16" t="s" s="12">
+      <c r="C16" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D16" s="11"/>
@@ -2144,21 +2242,21 @@
       <c r="F16" s="10">
         <v>44552</v>
       </c>
-      <c r="G16" t="s" s="12">
+      <c r="G16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H16" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" ht="13.75" customHeight="1">
-      <c r="A17" t="s" s="7">
+      <c r="H16" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A17" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B17" t="s" s="12">
+      <c r="B17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C17" t="s" s="12">
+      <c r="C17" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="11"/>
@@ -2168,21 +2266,21 @@
       <c r="F17" s="10">
         <v>44552</v>
       </c>
-      <c r="G17" t="s" s="12">
+      <c r="G17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H17" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" ht="13.75" customHeight="1">
-      <c r="A18" t="s" s="7">
+      <c r="H17" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s" s="12">
+      <c r="B18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C18" t="s" s="12">
+      <c r="C18" s="12" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="11"/>
@@ -2192,21 +2290,21 @@
       <c r="F18" s="10">
         <v>44552</v>
       </c>
-      <c r="G18" t="s" s="12">
+      <c r="G18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H18" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" ht="13.75" customHeight="1">
-      <c r="A19" t="s" s="7">
+      <c r="H18" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A19" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s" s="13">
+      <c r="B19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s" s="13">
+      <c r="C19" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="11"/>
@@ -2216,21 +2314,21 @@
       <c r="F19" s="10">
         <v>44552</v>
       </c>
-      <c r="G19" t="s" s="13">
+      <c r="G19" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H19" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" ht="13.75" customHeight="1">
-      <c r="A20" t="s" s="7">
+      <c r="H19" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B20" t="s" s="13">
+      <c r="B20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s" s="13">
+      <c r="C20" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D20" s="11"/>
@@ -2240,21 +2338,21 @@
       <c r="F20" s="10">
         <v>44552</v>
       </c>
-      <c r="G20" t="s" s="13">
+      <c r="G20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H20" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" ht="13.75" customHeight="1">
-      <c r="A21" t="s" s="7">
+      <c r="H20" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B21" t="s" s="13">
+      <c r="B21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C21" t="s" s="13">
+      <c r="C21" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="11"/>
@@ -2264,21 +2362,21 @@
       <c r="F21" s="10">
         <v>44552</v>
       </c>
-      <c r="G21" t="s" s="13">
+      <c r="G21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H21" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" ht="13.75" customHeight="1">
-      <c r="A22" t="s" s="7">
+      <c r="H21" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A22" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s" s="13">
+      <c r="B22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s" s="13">
+      <c r="C22" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D22" s="11"/>
@@ -2288,21 +2386,21 @@
       <c r="F22" s="10">
         <v>44552</v>
       </c>
-      <c r="G22" t="s" s="13">
+      <c r="G22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H22" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" ht="13.75" customHeight="1">
-      <c r="A23" t="s" s="7">
+      <c r="H22" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B23" t="s" s="13">
+      <c r="B23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C23" t="s" s="13">
+      <c r="C23" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="11"/>
@@ -2312,21 +2410,21 @@
       <c r="F23" s="10">
         <v>44552</v>
       </c>
-      <c r="G23" t="s" s="13">
+      <c r="G23" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H23" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" ht="13.75" customHeight="1">
-      <c r="A24" t="s" s="7">
+      <c r="H23" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A24" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s" s="13">
+      <c r="B24" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C24" t="s" s="13">
+      <c r="C24" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D24" s="11"/>
@@ -2336,21 +2434,21 @@
       <c r="F24" s="10">
         <v>44552</v>
       </c>
-      <c r="G24" t="s" s="13">
+      <c r="G24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H24" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" ht="13.75" customHeight="1">
-      <c r="A25" t="s" s="7">
+      <c r="H24" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B25" t="s" s="14">
+      <c r="B25" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C25" t="s" s="14">
+      <c r="C25" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D25" s="11"/>
@@ -2360,21 +2458,21 @@
       <c r="F25" s="10">
         <v>44552</v>
       </c>
-      <c r="G25" t="s" s="14">
+      <c r="G25" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H25" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" ht="13.75" customHeight="1">
-      <c r="A26" t="s" s="7">
+      <c r="H25" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s" s="14">
+      <c r="B26" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C26" t="s" s="14">
+      <c r="C26" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D26" s="11"/>
@@ -2384,21 +2482,21 @@
       <c r="F26" s="10">
         <v>44552</v>
       </c>
-      <c r="G26" t="s" s="14">
+      <c r="G26" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H26" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" ht="13.75" customHeight="1">
-      <c r="A27" t="s" s="7">
+      <c r="H26" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A27" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B27" t="s" s="14">
+      <c r="B27" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C27" t="s" s="14">
+      <c r="C27" s="14" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="11"/>
@@ -2408,21 +2506,21 @@
       <c r="F27" s="10">
         <v>44552</v>
       </c>
-      <c r="G27" t="s" s="14">
+      <c r="G27" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H27" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" ht="13.75" customHeight="1">
-      <c r="A28" t="s" s="7">
+      <c r="H27" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B28" t="s" s="15">
+      <c r="B28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C28" t="s" s="15">
+      <c r="C28" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D28" s="11"/>
@@ -2432,21 +2530,21 @@
       <c r="F28" s="10">
         <v>44552</v>
       </c>
-      <c r="G28" t="s" s="15">
+      <c r="G28" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H28" t="s" s="8">
+      <c r="H28" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" ht="13.75" customHeight="1">
-      <c r="A29" t="s" s="7">
+    <row r="29" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B29" t="s" s="15">
+      <c r="B29" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C29" t="s" s="15">
+      <c r="C29" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="11"/>
@@ -2456,21 +2554,21 @@
       <c r="F29" s="10">
         <v>44552</v>
       </c>
-      <c r="G29" t="s" s="15">
+      <c r="G29" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H29" t="s" s="8">
+      <c r="H29" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" ht="13.75" customHeight="1">
-      <c r="A30" t="s" s="7">
+    <row r="30" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A30" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B30" t="s" s="15">
+      <c r="B30" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C30" t="s" s="15">
+      <c r="C30" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D30" s="11"/>
@@ -2480,21 +2578,21 @@
       <c r="F30" s="10">
         <v>44552</v>
       </c>
-      <c r="G30" t="s" s="15">
+      <c r="G30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H30" t="s" s="8">
+      <c r="H30" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" ht="13.75" customHeight="1">
-      <c r="A31" t="s" s="7">
+    <row r="31" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A31" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B31" t="s" s="15">
+      <c r="B31" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C31" t="s" s="15">
+      <c r="C31" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D31" s="11"/>
@@ -2504,21 +2602,21 @@
       <c r="F31" s="10">
         <v>44552</v>
       </c>
-      <c r="G31" t="s" s="15">
+      <c r="G31" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H31" t="s" s="8">
+      <c r="H31" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" ht="13.75" customHeight="1">
-      <c r="A32" t="s" s="7">
+    <row r="32" spans="1:8" ht="13.75" customHeight="1">
+      <c r="A32" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B32" t="s" s="15">
+      <c r="B32" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C32" t="s" s="15">
+      <c r="C32" s="15" t="s">
         <v>53</v>
       </c>
       <c r="D32" s="11"/>
@@ -2528,646 +2626,666 @@
       <c r="F32" s="10">
         <v>44552</v>
       </c>
-      <c r="G32" t="s" s="15">
+      <c r="G32" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H32" t="s" s="8">
+      <c r="H32" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" t="s" s="7">
+    <row r="33" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A33" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B33" t="s" s="8">
+      <c r="B33" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
       <c r="E33" s="16"/>
       <c r="F33" s="17"/>
-      <c r="G33" t="s" s="8">
+      <c r="G33" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H33" t="s" s="8">
+      <c r="H33" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" t="s" s="7">
+    <row r="34" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A34" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B34" t="s" s="8">
+      <c r="B34" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="16"/>
       <c r="F34" s="17"/>
-      <c r="G34" t="s" s="8">
+      <c r="G34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H34" t="s" s="8">
+      <c r="H34" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" t="s" s="7">
+    <row r="35" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A35" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B35" t="s" s="8">
+      <c r="B35" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="16"/>
       <c r="F35" s="17"/>
-      <c r="G35" t="s" s="8">
+      <c r="G35" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H35" t="s" s="8">
+      <c r="H35" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" t="s" s="7">
+    <row r="36" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B36" t="s" s="8">
+      <c r="B36" s="8" t="s">
         <v>67</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="16"/>
       <c r="F36" s="17"/>
-      <c r="G36" t="s" s="8">
+      <c r="G36" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H36" t="s" s="8">
+      <c r="H36" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" t="s" s="7">
+    <row r="37" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A37" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B37" t="s" s="8">
+      <c r="B37" s="8" t="s">
         <v>69</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
       <c r="E37" s="16"/>
       <c r="F37" s="17"/>
-      <c r="G37" t="s" s="8">
+      <c r="G37" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H37" t="s" s="8">
+      <c r="H37" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" t="s" s="7">
+    <row r="38" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A38" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B38" t="s" s="8">
+      <c r="B38" s="8" t="s">
         <v>71</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
       <c r="E38" s="16"/>
       <c r="F38" s="17"/>
-      <c r="G38" t="s" s="8">
+      <c r="G38" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H38" t="s" s="8">
+      <c r="H38" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" t="s" s="7">
+    <row r="39" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A39" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B39" t="s" s="8">
+      <c r="B39" s="8" t="s">
         <v>73</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="11"/>
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
-      <c r="G39" t="s" s="8">
+      <c r="G39" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H39" t="s" s="8">
+      <c r="H39" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" t="s" s="7">
+    <row r="40" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A40" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B40" t="s" s="8">
+      <c r="B40" s="8" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
       <c r="E40" s="16"/>
       <c r="F40" s="17"/>
-      <c r="G40" t="s" s="8">
+      <c r="G40" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H40" t="s" s="8">
+      <c r="H40" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" t="s" s="7">
+    <row r="41" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A41" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B41" t="s" s="8">
+      <c r="B41" s="8" t="s">
         <v>78</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="11"/>
       <c r="E41" s="16"/>
       <c r="F41" s="17"/>
-      <c r="G41" t="s" s="8">
+      <c r="G41" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="H41" t="s" s="8">
+      <c r="H41" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" t="s" s="7">
+    <row r="42" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A42" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B42" t="s" s="8">
+      <c r="B42" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="16"/>
       <c r="F42" s="17"/>
-      <c r="G42" t="s" s="8">
+      <c r="G42" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H42" t="s" s="8">
+      <c r="H42" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" ht="13.5" customHeight="1">
-      <c r="A43" t="s" s="7">
+    <row r="43" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A43" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B43" t="s" s="8">
+      <c r="B43" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
-      <c r="G43" t="s" s="8">
+      <c r="G43" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H43" t="s" s="8">
+      <c r="H43" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" t="s" s="7">
+    <row r="44" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A44" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B44" t="s" s="8">
+      <c r="B44" s="8" t="s">
         <v>85</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="16"/>
       <c r="F44" s="17"/>
-      <c r="G44" t="s" s="8">
+      <c r="G44" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H44" t="s" s="8">
+      <c r="H44" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" t="s" s="7">
+    <row r="45" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A45" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B45" t="s" s="8">
+      <c r="B45" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="16"/>
       <c r="F45" s="17"/>
-      <c r="G45" t="s" s="8">
+      <c r="G45" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="H45" t="s" s="8">
+      <c r="H45" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" ht="13.5" customHeight="1">
-      <c r="A46" t="s" s="7">
+    <row r="46" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A46" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B46" t="s" s="8">
+      <c r="B46" s="8" t="s">
         <v>90</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="16"/>
       <c r="F46" s="17"/>
-      <c r="G46" t="s" s="8">
+      <c r="G46" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H46" t="s" s="8">
+      <c r="H46" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" ht="13.5" customHeight="1">
-      <c r="A47" t="s" s="7">
+    <row r="47" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A47" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B47" t="s" s="8">
+      <c r="B47" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
       <c r="E47" s="16"/>
       <c r="F47" s="17"/>
-      <c r="G47" t="s" s="8">
+      <c r="G47" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H47" t="s" s="8">
+      <c r="H47" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" t="s" s="7">
+    <row r="48" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A48" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B48" t="s" s="8">
+      <c r="B48" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="16"/>
       <c r="F48" s="17"/>
-      <c r="G48" t="s" s="8">
+      <c r="G48" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H48" t="s" s="8">
+      <c r="H48" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="49" ht="13.5" customHeight="1">
-      <c r="A49" t="s" s="7">
+    <row r="49" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A49" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B49" t="s" s="8">
+      <c r="B49" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="16"/>
       <c r="F49" s="17"/>
-      <c r="G49" t="s" s="8">
+      <c r="G49" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="H49" t="s" s="8">
+      <c r="H49" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" ht="13.5" customHeight="1">
-      <c r="A50" t="s" s="7">
+    <row r="50" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A50" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="s" s="8">
+      <c r="B50" s="8" t="s">
         <v>101</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="16"/>
       <c r="F50" s="17"/>
-      <c r="G50" t="s" s="8">
+      <c r="G50" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="H50" t="s" s="8">
+      <c r="H50" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" ht="13.5" customHeight="1">
-      <c r="A51" t="s" s="7">
+    <row r="51" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A51" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B51" t="s" s="8">
+      <c r="B51" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
       <c r="E51" s="16"/>
       <c r="F51" s="17"/>
-      <c r="G51" t="s" s="8">
+      <c r="G51" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H51" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" ht="13.5" customHeight="1">
-      <c r="A52" t="s" s="7">
+      <c r="H51" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A52" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B52" t="s" s="8">
+      <c r="B52" s="8" t="s">
         <v>106</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="16"/>
       <c r="F52" s="17"/>
-      <c r="G52" t="s" s="8">
+      <c r="G52" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H52" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" ht="13.5" customHeight="1">
-      <c r="A53" t="s" s="7">
+      <c r="H52" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A53" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B53" t="s" s="8">
+      <c r="B53" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
       <c r="E53" s="16"/>
       <c r="F53" s="17"/>
-      <c r="G53" t="s" s="8">
+      <c r="G53" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H53" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" ht="13.5" customHeight="1">
-      <c r="A54" t="s" s="7">
+      <c r="H53" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A54" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B54" t="s" s="8">
+      <c r="B54" s="8" t="s">
         <v>110</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11"/>
       <c r="E54" s="16"/>
       <c r="F54" s="17"/>
-      <c r="G54" t="s" s="8">
+      <c r="G54" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H54" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" ht="13.5" customHeight="1">
-      <c r="A55" t="s" s="7">
+      <c r="H54" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A55" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B55" t="s" s="8">
+      <c r="B55" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="16"/>
       <c r="F55" s="17"/>
-      <c r="G55" t="s" s="8">
+      <c r="G55" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H55" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" ht="13.5" customHeight="1">
-      <c r="A56" t="s" s="7">
+      <c r="H55" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A56" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B56" t="s" s="8">
+      <c r="B56" s="8" t="s">
         <v>114</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="16"/>
       <c r="F56" s="17"/>
-      <c r="G56" t="s" s="8">
+      <c r="G56" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="H56" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" ht="13.5" customHeight="1">
-      <c r="A57" t="s" s="7">
+      <c r="H56" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A57" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B57" t="s" s="8">
+      <c r="B57" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
       <c r="E57" s="16"/>
       <c r="F57" s="17"/>
-      <c r="G57" t="s" s="8">
+      <c r="G57" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H57" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" ht="13.5" customHeight="1">
-      <c r="A58" t="s" s="7">
+      <c r="H57" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A58" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="s" s="8">
+      <c r="B58" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="16"/>
       <c r="F58" s="17"/>
-      <c r="G58" t="s" s="8">
+      <c r="G58" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H58" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59" ht="13.5" customHeight="1">
-      <c r="A59" t="s" s="7">
+      <c r="H58" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A59" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="s" s="8">
+      <c r="B59" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="16"/>
       <c r="F59" s="17"/>
-      <c r="G59" t="s" s="8">
+      <c r="G59" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H59" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" ht="13.5" customHeight="1">
-      <c r="A60" t="s" s="7">
+      <c r="H59" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A60" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B60" t="s" s="8">
+      <c r="B60" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
       <c r="E60" s="16"/>
       <c r="F60" s="17"/>
-      <c r="G60" t="s" s="8">
+      <c r="G60" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H60" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" ht="13.5" customHeight="1">
-      <c r="A61" t="s" s="7">
+      <c r="H60" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A61" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B61" t="s" s="8">
+      <c r="B61" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
       <c r="E61" s="16"/>
       <c r="F61" s="17"/>
-      <c r="G61" t="s" s="8">
+      <c r="G61" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H61" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" ht="13.5" customHeight="1">
-      <c r="A62" t="s" s="7">
+      <c r="H61" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A62" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B62" t="s" s="8">
+      <c r="B62" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="16"/>
       <c r="F62" s="17"/>
-      <c r="G62" t="s" s="8">
+      <c r="G62" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="H62" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" ht="13.5" customHeight="1">
-      <c r="A63" t="s" s="7">
+      <c r="H62" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A63" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B63" t="s" s="8">
+      <c r="B63" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="16"/>
       <c r="F63" s="17"/>
-      <c r="G63" t="s" s="8">
+      <c r="G63" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H63" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" ht="13.5" customHeight="1">
-      <c r="A64" t="s" s="7">
+      <c r="H63" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A64" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B64" t="s" s="8">
+      <c r="B64" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
       <c r="E64" s="16"/>
       <c r="F64" s="17"/>
-      <c r="G64" t="s" s="8">
+      <c r="G64" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H64" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" ht="13.5" customHeight="1">
-      <c r="A65" t="s" s="7">
+      <c r="H64" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A65" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B65" t="s" s="8">
+      <c r="B65" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
       <c r="E65" s="16"/>
       <c r="F65" s="17"/>
-      <c r="G65" t="s" s="8">
+      <c r="G65" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H65" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" ht="13.5" customHeight="1">
-      <c r="A66" t="s" s="7">
+      <c r="H65" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A66" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B66" t="s" s="8">
+      <c r="B66" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
       <c r="E66" s="16"/>
       <c r="F66" s="17"/>
-      <c r="G66" t="s" s="8">
+      <c r="G66" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="H66" t="s" s="8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" ht="13.5" customHeight="1">
-      <c r="A67" t="s" s="7">
-        <v>126</v>
-      </c>
-      <c r="B67" t="s" s="8">
-        <v>127</v>
+      <c r="H66" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A67" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>129</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="16"/>
       <c r="F67" s="17"/>
-      <c r="G67" t="s" s="8">
+      <c r="G67" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="H67" t="s" s="8">
+      <c r="H67" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="13.5" customHeight="1">
+      <c r="A68" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H68" s="8" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H68" xr:uid="{FF46FD31-D73F-7548-A360-C6D7242383E9}"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
